--- a/Documentation/passwords.xlsx
+++ b/Documentation/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\NoobML\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492BFD2-A10D-4609-A839-694A6DB15FBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E0762-5B57-4EAA-93DF-CE4779C30046}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{485102CB-C937-4CF2-9D1C-AE4923190277}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>noob</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0AC867-7AED-4928-8943-B708E1423E1F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +444,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
